--- a/Code/Results/Cases/Case_8_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018972538016346</v>
+        <v>1.014463649256807</v>
       </c>
       <c r="D2">
-        <v>1.033060422470666</v>
+        <v>1.029165546930644</v>
       </c>
       <c r="E2">
-        <v>1.022546960094397</v>
+        <v>1.018726555838714</v>
       </c>
       <c r="F2">
-        <v>1.033063036037766</v>
+        <v>1.031078973786128</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050182946360743</v>
+        <v>1.048049621895375</v>
       </c>
       <c r="J2">
-        <v>1.040600222338178</v>
+        <v>1.036220196483755</v>
       </c>
       <c r="K2">
-        <v>1.044077613813254</v>
+        <v>1.040232979536944</v>
       </c>
       <c r="L2">
-        <v>1.033700868459584</v>
+        <v>1.029931021995482</v>
       </c>
       <c r="M2">
-        <v>1.044080193826139</v>
+        <v>1.042121665145151</v>
       </c>
       <c r="N2">
-        <v>1.04207799401243</v>
+        <v>1.029905451082337</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043458901192856</v>
+        <v>1.04190886173431</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04223697171875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039527241573803</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022552468521183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023410078980912</v>
+        <v>1.018331929764398</v>
       </c>
       <c r="D3">
-        <v>1.036045081312489</v>
+        <v>1.031643461134724</v>
       </c>
       <c r="E3">
-        <v>1.026132702676683</v>
+        <v>1.021805962869943</v>
       </c>
       <c r="F3">
-        <v>1.036107887352489</v>
+        <v>1.033868152084361</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05145546494196</v>
+        <v>1.049024007410156</v>
       </c>
       <c r="J3">
-        <v>1.04328228639559</v>
+        <v>1.038335023812884</v>
       </c>
       <c r="K3">
-        <v>1.046236630954554</v>
+        <v>1.041886855067224</v>
       </c>
       <c r="L3">
-        <v>1.036441782600954</v>
+        <v>1.032167232413081</v>
       </c>
       <c r="M3">
-        <v>1.046298701180604</v>
+        <v>1.044085274281626</v>
       </c>
       <c r="N3">
-        <v>1.044763866908422</v>
+        <v>1.031091153367067</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045214691737314</v>
+        <v>1.04346292201629</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043760920192321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040693734646904</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022914129722554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026225025293856</v>
+        <v>1.020789820218189</v>
       </c>
       <c r="D4">
-        <v>1.037942375816173</v>
+        <v>1.033221816737511</v>
       </c>
       <c r="E4">
-        <v>1.028412556408137</v>
+        <v>1.023767922203808</v>
       </c>
       <c r="F4">
-        <v>1.038047705550857</v>
+        <v>1.03564776977437</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052254469119682</v>
+        <v>1.049635260051131</v>
       </c>
       <c r="J4">
-        <v>1.044980877122901</v>
+        <v>1.039676267178468</v>
       </c>
       <c r="K4">
-        <v>1.047603460504499</v>
+        <v>1.042935159378262</v>
       </c>
       <c r="L4">
-        <v>1.038179746558246</v>
+        <v>1.033587708798867</v>
       </c>
       <c r="M4">
-        <v>1.047707630869694</v>
+        <v>1.045334183256844</v>
       </c>
       <c r="N4">
-        <v>1.046464869829397</v>
+        <v>1.031843131243948</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046329757042153</v>
+        <v>1.04445134502243</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044728266631145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041435946609857</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023140860095683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027400762860282</v>
+        <v>1.021816906105852</v>
       </c>
       <c r="D5">
-        <v>1.038738241582977</v>
+        <v>1.033884768490703</v>
       </c>
       <c r="E5">
-        <v>1.029366816808071</v>
+        <v>1.024589728403857</v>
       </c>
       <c r="F5">
-        <v>1.038858771856732</v>
+        <v>1.036392170610814</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052588319824121</v>
+        <v>1.049890755307278</v>
       </c>
       <c r="J5">
-        <v>1.045691652264893</v>
+        <v>1.040237947970016</v>
       </c>
       <c r="K5">
-        <v>1.04817711459619</v>
+        <v>1.043375944468778</v>
       </c>
       <c r="L5">
-        <v>1.038907224269054</v>
+        <v>1.034182771691759</v>
       </c>
       <c r="M5">
-        <v>1.048296353606364</v>
+        <v>1.045856250844553</v>
       </c>
       <c r="N5">
-        <v>1.047176654353618</v>
+        <v>1.032158040378297</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046795687739407</v>
+        <v>1.04486452414901</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045141005236161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041755471766276</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023236341298409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027603985027301</v>
+        <v>1.021993957142077</v>
       </c>
       <c r="D6">
-        <v>1.038878887287364</v>
+        <v>1.034002135094022</v>
       </c>
       <c r="E6">
-        <v>1.029532796710158</v>
+        <v>1.024732328789805</v>
       </c>
       <c r="F6">
-        <v>1.038997743100041</v>
+        <v>1.036519394801872</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05264850623477</v>
+        <v>1.049937108897255</v>
       </c>
       <c r="J6">
-        <v>1.045816911731495</v>
+        <v>1.040336972212492</v>
       </c>
       <c r="K6">
-        <v>1.048280419923873</v>
+        <v>1.043455981180071</v>
       </c>
       <c r="L6">
-        <v>1.039035119971734</v>
+        <v>1.034287299621195</v>
       </c>
       <c r="M6">
-        <v>1.04839800826359</v>
+        <v>1.045946162661178</v>
       </c>
       <c r="N6">
-        <v>1.04730209170303</v>
+        <v>1.032213558733884</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046876139885751</v>
+        <v>1.044935682892528</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04522273368501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041821644528957</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023254562341534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026258523580113</v>
+        <v>1.020847992343176</v>
       </c>
       <c r="D7">
-        <v>1.037973186140805</v>
+        <v>1.033271502699471</v>
       </c>
       <c r="E7">
-        <v>1.028442377131192</v>
+        <v>1.023821578265993</v>
       </c>
       <c r="F7">
-        <v>1.038067217164311</v>
+        <v>1.035679099522068</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052271013708844</v>
+        <v>1.0496655888325</v>
       </c>
       <c r="J7">
-        <v>1.045007722197281</v>
+        <v>1.039727130320342</v>
       </c>
       <c r="K7">
-        <v>1.047631076590936</v>
+        <v>1.042981419838751</v>
       </c>
       <c r="L7">
-        <v>1.03820634105071</v>
+        <v>1.033637846001029</v>
       </c>
       <c r="M7">
-        <v>1.047724073016414</v>
+        <v>1.045362302739779</v>
       </c>
       <c r="N7">
-        <v>1.046491753026862</v>
+        <v>1.031923467895161</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046342769794614</v>
+        <v>1.044473599586354</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044767770913758</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041490694796502</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023156913447229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020506744713387</v>
+        <v>1.015894367410092</v>
       </c>
       <c r="D8">
-        <v>1.034101681338009</v>
+        <v>1.03010490756088</v>
       </c>
       <c r="E8">
-        <v>1.02378905979199</v>
+        <v>1.019883275922065</v>
       </c>
       <c r="F8">
-        <v>1.034109507699117</v>
+        <v>1.032081547089418</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050633460076833</v>
+        <v>1.048449364846149</v>
       </c>
       <c r="J8">
-        <v>1.041536363810389</v>
+        <v>1.03705134389184</v>
       </c>
       <c r="K8">
-        <v>1.044838717415564</v>
+        <v>1.040891963475835</v>
       </c>
       <c r="L8">
-        <v>1.034656153524262</v>
+        <v>1.030800486248084</v>
       </c>
       <c r="M8">
-        <v>1.044846446301951</v>
+        <v>1.042843804893446</v>
       </c>
       <c r="N8">
-        <v>1.043015464912891</v>
+        <v>1.030528635383537</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044065335923437</v>
+        <v>1.042480385587506</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04279791458214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040018307001956</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02271157317842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009888269463028</v>
+        <v>1.006686229634206</v>
       </c>
       <c r="D9">
-        <v>1.02697515911972</v>
+        <v>1.024224353836518</v>
       </c>
       <c r="E9">
-        <v>1.015237654327409</v>
+        <v>1.012585895525628</v>
       </c>
       <c r="F9">
-        <v>1.026878001935443</v>
+        <v>1.025485381029521</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.0475351460772</v>
+        <v>1.046085797472594</v>
       </c>
       <c r="J9">
-        <v>1.035096615364913</v>
+        <v>1.032005069294938</v>
       </c>
       <c r="K9">
-        <v>1.039645234993754</v>
+        <v>1.036936264347319</v>
       </c>
       <c r="L9">
-        <v>1.028088255771354</v>
+        <v>1.025478023122206</v>
       </c>
       <c r="M9">
-        <v>1.039549550524173</v>
+        <v>1.03817807814484</v>
       </c>
       <c r="N9">
-        <v>1.036566571285973</v>
+        <v>1.027718590018595</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039873206568856</v>
+        <v>1.038787776370016</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039122638481585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037217931330604</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021832488056425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002586337717673</v>
+        <v>1.000521267971914</v>
       </c>
       <c r="D10">
-        <v>1.022119123777863</v>
+        <v>1.020351133162296</v>
       </c>
       <c r="E10">
-        <v>1.009405902034832</v>
+        <v>1.007772165532594</v>
       </c>
       <c r="F10">
-        <v>1.022120122843446</v>
+        <v>1.021245542613214</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045406043693231</v>
+        <v>1.044548763164606</v>
       </c>
       <c r="J10">
-        <v>1.030697715769701</v>
+        <v>1.028714219569786</v>
       </c>
       <c r="K10">
-        <v>1.03610017402833</v>
+        <v>1.034362412927923</v>
       </c>
       <c r="L10">
-        <v>1.023607381637854</v>
+        <v>1.022002494890023</v>
       </c>
       <c r="M10">
-        <v>1.036101156049844</v>
+        <v>1.035241512656803</v>
       </c>
       <c r="N10">
-        <v>1.032161424748774</v>
+        <v>1.026105603704826</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037195544551545</v>
+        <v>1.03651523356095</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036632834804911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035416540128719</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021275574095162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000234403161984</v>
+        <v>0.9986857409169853</v>
       </c>
       <c r="D11">
-        <v>1.020701075830059</v>
+        <v>1.019362655847252</v>
       </c>
       <c r="E11">
-        <v>1.007668177366964</v>
+        <v>1.006500703910407</v>
       </c>
       <c r="F11">
-        <v>1.021912408044808</v>
+        <v>1.021280385052974</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045037889850447</v>
+        <v>1.044446406076861</v>
       </c>
       <c r="J11">
-        <v>1.029597433938816</v>
+        <v>1.028113296997321</v>
       </c>
       <c r="K11">
-        <v>1.03524288162823</v>
+        <v>1.033928431105366</v>
       </c>
       <c r="L11">
-        <v>1.022446917608365</v>
+        <v>1.021301058993004</v>
       </c>
       <c r="M11">
-        <v>1.036432590633782</v>
+        <v>1.035811841427946</v>
       </c>
       <c r="N11">
-        <v>1.031059580391485</v>
+        <v>1.026211439967701</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037894339489282</v>
+        <v>1.037403334286172</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036059486276877</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035145741383357</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021283619392944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9996553549382899</v>
+        <v>0.9982275619110195</v>
       </c>
       <c r="D12">
-        <v>1.020416280419889</v>
+        <v>1.019174742525377</v>
       </c>
       <c r="E12">
-        <v>1.007309265817611</v>
+        <v>1.006245245372185</v>
       </c>
       <c r="F12">
-        <v>1.022481115185768</v>
+        <v>1.021906487455141</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04510023736775</v>
+        <v>1.044563389955892</v>
       </c>
       <c r="J12">
-        <v>1.029474307927682</v>
+        <v>1.028107124388081</v>
       </c>
       <c r="K12">
-        <v>1.035162517939515</v>
+        <v>1.033943579553621</v>
       </c>
       <c r="L12">
-        <v>1.022297758918081</v>
+        <v>1.021253766511051</v>
       </c>
       <c r="M12">
-        <v>1.037189924894751</v>
+        <v>1.036625693284544</v>
       </c>
       <c r="N12">
-        <v>1.030936279527292</v>
+        <v>1.026400264691657</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038819757189239</v>
+        <v>1.038373607880433</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036002666708343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035156451596243</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021352177765315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000424229518636</v>
+        <v>0.9987857827297016</v>
       </c>
       <c r="D13">
-        <v>1.021007643905526</v>
+        <v>1.019585603914021</v>
       </c>
       <c r="E13">
-        <v>1.008006113655007</v>
+        <v>1.00674059298201</v>
       </c>
       <c r="F13">
-        <v>1.023714431014495</v>
+        <v>1.023042629506043</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045516446427975</v>
+        <v>1.044856949041403</v>
       </c>
       <c r="J13">
-        <v>1.03011809063207</v>
+        <v>1.02854881008085</v>
       </c>
       <c r="K13">
-        <v>1.035700420699686</v>
+        <v>1.034304146424433</v>
       </c>
       <c r="L13">
-        <v>1.022937995615008</v>
+        <v>1.021696179246959</v>
       </c>
       <c r="M13">
-        <v>1.038358420968629</v>
+        <v>1.037698696637818</v>
       </c>
       <c r="N13">
-        <v>1.031580976476964</v>
+        <v>1.026605272203966</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040020194573014</v>
+        <v>1.039498668131692</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036380492025359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035408645327267</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021472737574541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001566828628963</v>
+        <v>0.9996391166713544</v>
       </c>
       <c r="D14">
-        <v>1.021815071931748</v>
+        <v>1.020148503099685</v>
       </c>
       <c r="E14">
-        <v>1.008966734086331</v>
+        <v>1.007430974949326</v>
       </c>
       <c r="F14">
-        <v>1.024864394167099</v>
+        <v>1.024059160626543</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045964097705917</v>
+        <v>1.045144374073264</v>
       </c>
       <c r="J14">
-        <v>1.030910131776714</v>
+        <v>1.029062592049514</v>
       </c>
       <c r="K14">
-        <v>1.03635343500617</v>
+        <v>1.034716679162879</v>
       </c>
       <c r="L14">
-        <v>1.023738258883485</v>
+        <v>1.022230888375882</v>
       </c>
       <c r="M14">
-        <v>1.039348534004731</v>
+        <v>1.038557578463514</v>
       </c>
       <c r="N14">
-        <v>1.032374142410881</v>
+        <v>1.026758351627787</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040976043715928</v>
+        <v>1.040350860305291</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036843614895591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035701875208779</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021583094510906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00215149710162</v>
+        <v>1.000083887463543</v>
       </c>
       <c r="D15">
-        <v>1.022215214167139</v>
+        <v>1.020431195858707</v>
       </c>
       <c r="E15">
-        <v>1.009443044934292</v>
+        <v>1.007778443748176</v>
       </c>
       <c r="F15">
-        <v>1.025323920904704</v>
+        <v>1.024454319316273</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046160042113253</v>
+        <v>1.045265072884914</v>
       </c>
       <c r="J15">
-        <v>1.03128449546067</v>
+        <v>1.029302109270054</v>
       </c>
       <c r="K15">
-        <v>1.036660331080459</v>
+        <v>1.034907981563254</v>
       </c>
       <c r="L15">
-        <v>1.024118099054465</v>
+        <v>1.022484024928885</v>
       </c>
       <c r="M15">
-        <v>1.039714195263197</v>
+        <v>1.03885989136872</v>
       </c>
       <c r="N15">
-        <v>1.032749037734209</v>
+        <v>1.026812791323455</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041302565070307</v>
+        <v>1.040627327852428</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037066457298182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035843565699107</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021627108403492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005089844969865</v>
+        <v>1.002385131647756</v>
       </c>
       <c r="D16">
-        <v>1.024152382212362</v>
+        <v>1.021835224376621</v>
       </c>
       <c r="E16">
-        <v>1.011766428439671</v>
+        <v>1.009524906010075</v>
       </c>
       <c r="F16">
-        <v>1.027144473809737</v>
+        <v>1.025983088995484</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046991620988203</v>
+        <v>1.045764925105058</v>
       </c>
       <c r="J16">
-        <v>1.03302682210953</v>
+        <v>1.030427953365823</v>
       </c>
       <c r="K16">
-        <v>1.038063395027794</v>
+        <v>1.035785565617322</v>
       </c>
       <c r="L16">
-        <v>1.025890373749067</v>
+        <v>1.023688109935759</v>
       </c>
       <c r="M16">
-        <v>1.041005041205299</v>
+        <v>1.039863191793799</v>
       </c>
       <c r="N16">
-        <v>1.034493838686758</v>
+        <v>1.027041235127257</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04228417317561</v>
+        <v>1.041381635741351</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038061623441354</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036467508567072</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021791271150287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006752185223589</v>
+        <v>1.003737594723998</v>
       </c>
       <c r="D17">
-        <v>1.025221861493746</v>
+        <v>1.022644207799282</v>
       </c>
       <c r="E17">
-        <v>1.013053158101417</v>
+        <v>1.010535400401178</v>
       </c>
       <c r="F17">
-        <v>1.027938494262078</v>
+        <v>1.026635621437075</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047396422357523</v>
+        <v>1.046012512473953</v>
       </c>
       <c r="J17">
-        <v>1.033953337150862</v>
+        <v>1.031052896525466</v>
       </c>
       <c r="K17">
-        <v>1.038801654529959</v>
+        <v>1.036266518824015</v>
       </c>
       <c r="L17">
-        <v>1.026836124636901</v>
+        <v>1.024361193536412</v>
       </c>
       <c r="M17">
-        <v>1.041473773484686</v>
+        <v>1.040192211291191</v>
       </c>
       <c r="N17">
-        <v>1.035421669485722</v>
+        <v>1.02720458345148</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042525788640183</v>
+        <v>1.041512719140406</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038586175140699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036810391228671</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021866345888777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007434556379777</v>
+        <v>1.00432811313727</v>
       </c>
       <c r="D18">
-        <v>1.025606231569573</v>
+        <v>1.022951421969074</v>
       </c>
       <c r="E18">
-        <v>1.013528801002146</v>
+        <v>1.010934150908395</v>
       </c>
       <c r="F18">
-        <v>1.027806675763346</v>
+        <v>1.026460845236139</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047441550043208</v>
+        <v>1.046016427015897</v>
       </c>
       <c r="J18">
-        <v>1.034219607796315</v>
+        <v>1.031228600876809</v>
       </c>
       <c r="K18">
-        <v>1.038997136534172</v>
+        <v>1.036385404815251</v>
       </c>
       <c r="L18">
-        <v>1.027118025562204</v>
+        <v>1.02456677853933</v>
       </c>
       <c r="M18">
-        <v>1.041162091933919</v>
+        <v>1.039837943786337</v>
       </c>
       <c r="N18">
-        <v>1.035688318266033</v>
+        <v>1.027221167698388</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042041979711094</v>
+        <v>1.040995028558982</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038712786675816</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036881691427471</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021848516749388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007235617287443</v>
+        <v>1.004207715541952</v>
       </c>
       <c r="D19">
-        <v>1.025386551716331</v>
+        <v>1.022799735203133</v>
       </c>
       <c r="E19">
-        <v>1.01327945601362</v>
+        <v>1.010762309294245</v>
       </c>
       <c r="F19">
-        <v>1.026790950698311</v>
+        <v>1.025478467795792</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047170129152076</v>
+        <v>1.04579365008165</v>
       </c>
       <c r="J19">
-        <v>1.033894984995308</v>
+        <v>1.030978993917264</v>
       </c>
       <c r="K19">
-        <v>1.038718736721668</v>
+        <v>1.03617369045143</v>
       </c>
       <c r="L19">
-        <v>1.026809503371772</v>
+        <v>1.024334260424947</v>
       </c>
       <c r="M19">
-        <v>1.040100571429311</v>
+        <v>1.038809173573837</v>
       </c>
       <c r="N19">
-        <v>1.035363234463413</v>
+        <v>1.027058157288757</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040877382104726</v>
+        <v>1.039855992078228</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038522326207733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036739016812204</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021748964913025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004533133573394</v>
+        <v>1.002065591702925</v>
       </c>
       <c r="D20">
-        <v>1.023433683617784</v>
+        <v>1.021325939995877</v>
       </c>
       <c r="E20">
-        <v>1.010967190840069</v>
+        <v>1.008966076248804</v>
       </c>
       <c r="F20">
-        <v>1.023384805088492</v>
+        <v>1.022324207068465</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045996949521257</v>
+        <v>1.044925702802266</v>
       </c>
       <c r="J20">
-        <v>1.031890422027482</v>
+        <v>1.029517119813911</v>
       </c>
       <c r="K20">
-        <v>1.03707662610001</v>
+        <v>1.035003884675442</v>
       </c>
       <c r="L20">
-        <v>1.024819898256518</v>
+        <v>1.02285307913409</v>
       </c>
       <c r="M20">
-        <v>1.037028557168799</v>
+        <v>1.035985550881846</v>
       </c>
       <c r="N20">
-        <v>1.033355824786247</v>
+        <v>1.026361132937438</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037918920639907</v>
+        <v>1.037093488688863</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037365216347292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035916237275405</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021410966799783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9988607058955232</v>
+        <v>0.9977510837649393</v>
       </c>
       <c r="D21">
-        <v>1.019641816920743</v>
+        <v>1.018674764676547</v>
       </c>
       <c r="E21">
-        <v>1.00642344482276</v>
+        <v>1.005673527157996</v>
       </c>
       <c r="F21">
-        <v>1.019450211894973</v>
+        <v>1.019022467070426</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044264905005881</v>
+        <v>1.043924877786304</v>
       </c>
       <c r="J21">
-        <v>1.02840613787617</v>
+        <v>1.027343133092867</v>
       </c>
       <c r="K21">
-        <v>1.034260385167321</v>
+        <v>1.033310769641979</v>
       </c>
       <c r="L21">
-        <v>1.021284136461284</v>
+        <v>1.02054820417703</v>
       </c>
       <c r="M21">
-        <v>1.034072231516476</v>
+        <v>1.033652197732681</v>
       </c>
       <c r="N21">
-        <v>1.029866592551787</v>
+        <v>1.025950237973801</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035538258909591</v>
+        <v>1.03520582794488</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035377270709803</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034722700982998</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021084048885285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9952462522309176</v>
+        <v>0.9949928670330012</v>
       </c>
       <c r="D22">
-        <v>1.01723180152929</v>
+        <v>1.016987777391635</v>
       </c>
       <c r="E22">
-        <v>1.003540291144498</v>
+        <v>1.003581454909082</v>
       </c>
       <c r="F22">
-        <v>1.017042274447795</v>
+        <v>1.017016579970335</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043165360502601</v>
+        <v>1.043289805146995</v>
       </c>
       <c r="J22">
-        <v>1.026196519303501</v>
+        <v>1.025954412210215</v>
       </c>
       <c r="K22">
-        <v>1.032469451540142</v>
+        <v>1.032230051306664</v>
       </c>
       <c r="L22">
-        <v>1.019041938915732</v>
+        <v>1.019082294795814</v>
       </c>
       <c r="M22">
-        <v>1.032283515470924</v>
+        <v>1.032258307967199</v>
       </c>
       <c r="N22">
-        <v>1.027653836067297</v>
+        <v>1.025643225719213</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034122598837673</v>
+        <v>1.034102648609722</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034097512838673</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033943782464055</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020876763684395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9971522891175293</v>
+        <v>0.9963976608628566</v>
       </c>
       <c r="D23">
-        <v>1.01849438455721</v>
+        <v>1.017828267934531</v>
       </c>
       <c r="E23">
-        <v>1.005056767927855</v>
+        <v>1.00463176717394</v>
       </c>
       <c r="F23">
-        <v>1.018314043124208</v>
+        <v>1.018051487049817</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04373919645584</v>
+        <v>1.043589182188646</v>
       </c>
       <c r="J23">
-        <v>1.027355614555907</v>
+        <v>1.026633571861248</v>
       </c>
       <c r="K23">
-        <v>1.033403616227214</v>
+        <v>1.032749797186717</v>
       </c>
       <c r="L23">
-        <v>1.020218204625033</v>
+        <v>1.019801324575221</v>
       </c>
       <c r="M23">
-        <v>1.033226602116547</v>
+        <v>1.032968892981981</v>
       </c>
       <c r="N23">
-        <v>1.028814577367912</v>
+        <v>1.025704420337173</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034868994971739</v>
+        <v>1.034665033831289</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034748372801101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034300685236418</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020965475936909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004512793481963</v>
+        <v>1.002054577036307</v>
       </c>
       <c r="D24">
-        <v>1.023395691821242</v>
+        <v>1.021295765910528</v>
       </c>
       <c r="E24">
-        <v>1.010934115931225</v>
+        <v>1.00894233048018</v>
       </c>
       <c r="F24">
-        <v>1.023245346481406</v>
+        <v>1.022188699319462</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045950021316327</v>
+        <v>1.044884703736913</v>
       </c>
       <c r="J24">
-        <v>1.03183822699987</v>
+        <v>1.029473766446561</v>
       </c>
       <c r="K24">
-        <v>1.03702404290551</v>
+        <v>1.03495894768415</v>
       </c>
       <c r="L24">
-        <v>1.024771899056258</v>
+        <v>1.022814207780101</v>
       </c>
       <c r="M24">
-        <v>1.036876185172299</v>
+        <v>1.035837047822196</v>
       </c>
       <c r="N24">
-        <v>1.033303555635709</v>
+        <v>1.026328916345104</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037757412174427</v>
+        <v>1.036935001014677</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037300687343079</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035854400255309</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021389943158463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012719993714448</v>
+        <v>1.009095178773625</v>
       </c>
       <c r="D25">
-        <v>1.028884357297685</v>
+        <v>1.025765746334578</v>
       </c>
       <c r="E25">
-        <v>1.017517514479171</v>
+        <v>1.014487026015191</v>
       </c>
       <c r="F25">
-        <v>1.02879238026727</v>
+        <v>1.027207929526617</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048379980169899</v>
+        <v>1.04670938123901</v>
       </c>
       <c r="J25">
-        <v>1.036826733400743</v>
+        <v>1.033320283447815</v>
       </c>
       <c r="K25">
-        <v>1.041050237517047</v>
+        <v>1.037976828547956</v>
       </c>
       <c r="L25">
-        <v>1.029849846342935</v>
+        <v>1.02686453639067</v>
       </c>
       <c r="M25">
-        <v>1.040959588656776</v>
+        <v>1.039398065097072</v>
       </c>
       <c r="N25">
-        <v>1.03829914628786</v>
+        <v>1.028390240278265</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040989157317347</v>
+        <v>1.039753315895741</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040144539833561</v>
+        <v>1.037985016540299</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022065419384019</v>
       </c>
     </row>
   </sheetData>
